--- a/Summer2019/teams.xlsx
+++ b/Summer2019/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agxi/IMFS/Projects/ODSC/imfs-datascience-comp/Summer2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225197F1-DCC7-BB4F-8DA5-9578ABDA59F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83655E04-72D6-4543-BA8F-4BC1FE010F34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="8600" xr2:uid="{41E7A17B-6ABA-4346-A47E-AF96884F651A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14880" xr2:uid="{41E7A17B-6ABA-4346-A47E-AF96884F651A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="151">
   <si>
     <t>Dylan King</t>
   </si>
@@ -241,6 +241,243 @@
   </si>
   <si>
     <t>Michael Bergstrom</t>
+  </si>
+  <si>
+    <t>Monica Goode</t>
+  </si>
+  <si>
+    <t>monica_goode@vanguard.com</t>
+  </si>
+  <si>
+    <t>warren_penington@vanguard.com</t>
+  </si>
+  <si>
+    <t>IMFS/head</t>
+  </si>
+  <si>
+    <t>John Goes</t>
+  </si>
+  <si>
+    <t>john_goes@vanguard.com</t>
+  </si>
+  <si>
+    <t>RMG/Quant Researcher</t>
+  </si>
+  <si>
+    <t>Ross Walter</t>
+  </si>
+  <si>
+    <t>ross_walter@vanguard.com</t>
+  </si>
+  <si>
+    <t>rickpaul_dhindsa@vanguard.com</t>
+  </si>
+  <si>
+    <t>RickPaul Dhindsa</t>
+  </si>
+  <si>
+    <t>Shiyun Song</t>
+  </si>
+  <si>
+    <t>Pavan Mullapudi</t>
+  </si>
+  <si>
+    <t>pavan_mullapudi@vanguard.com</t>
+  </si>
+  <si>
+    <t>shyun_song@vanguard.com</t>
+  </si>
+  <si>
+    <t>lulzim_gjekmarkaj@vanguard.com</t>
+  </si>
+  <si>
+    <t>Lulzim Gjekmarkaj</t>
+  </si>
+  <si>
+    <t>Tom Paradise</t>
+  </si>
+  <si>
+    <t>thomas_paradise@vanguard.com</t>
+  </si>
+  <si>
+    <t>Hiran Nair</t>
+  </si>
+  <si>
+    <t>msghiran@gmail.com</t>
+  </si>
+  <si>
+    <t>andrew_s_clarke@vanguard.com</t>
+  </si>
+  <si>
+    <t>Andrew Clarke</t>
+  </si>
+  <si>
+    <t>ISG</t>
+  </si>
+  <si>
+    <t>Patricia Bower</t>
+  </si>
+  <si>
+    <t>Patricia_a_bower@vanguard.com</t>
+  </si>
+  <si>
+    <t>Jon Miller</t>
+  </si>
+  <si>
+    <t>jon_miller@vanguard.com</t>
+  </si>
+  <si>
+    <t>Bob Hacker</t>
+  </si>
+  <si>
+    <t>robert_hacker@vanguard.com</t>
+  </si>
+  <si>
+    <t>Malav Shah</t>
+  </si>
+  <si>
+    <t>malav_shah@vanguard.com</t>
+  </si>
+  <si>
+    <t>swapnil_kulkarni@vanguard.com</t>
+  </si>
+  <si>
+    <t>Swapnil Kulkarni</t>
+  </si>
+  <si>
+    <t>tuyen_truong@vanguard.com</t>
+  </si>
+  <si>
+    <t>Tuyen Truong</t>
+  </si>
+  <si>
+    <t>Pallas Sun Lo</t>
+  </si>
+  <si>
+    <t>pallas_lo@vanguard.com</t>
+  </si>
+  <si>
+    <t>lincoln_roden_bartlett@vanguard.com</t>
+  </si>
+  <si>
+    <t>Lincoln Bartlett</t>
+  </si>
+  <si>
+    <t>ryan_wilkinson@vanguard.com</t>
+  </si>
+  <si>
+    <t>Ryan Wilkinson</t>
+  </si>
+  <si>
+    <t>christopher_nieves@vanguard.com</t>
+  </si>
+  <si>
+    <t>Christopher Nieves</t>
+  </si>
+  <si>
+    <t>michael_b_davis@vanguard.com</t>
+  </si>
+  <si>
+    <t>Michael Davis</t>
+  </si>
+  <si>
+    <t>patricia_selim@vanguard.com</t>
+  </si>
+  <si>
+    <t>Patricia Selim</t>
+  </si>
+  <si>
+    <t>justin_tyler_copeland@vanguard.com</t>
+  </si>
+  <si>
+    <t>Justin Copeland</t>
+  </si>
+  <si>
+    <t>paul_m_jakubowski@vanguard.com</t>
+  </si>
+  <si>
+    <t>edoardo.cilla@vanguard.co.uk</t>
+  </si>
+  <si>
+    <t>Edoardo Cilla</t>
+  </si>
+  <si>
+    <t>william.palmer@vanguard.co.uk</t>
+  </si>
+  <si>
+    <t>Will Palmer</t>
+  </si>
+  <si>
+    <t>giulio.renzi.ricci@vanguard.co.uk</t>
+  </si>
+  <si>
+    <t>Giulio Renzi Ricci</t>
+  </si>
+  <si>
+    <t>robert.miller@vanguard.co.uk</t>
+  </si>
+  <si>
+    <t>Robert Miller</t>
+  </si>
+  <si>
+    <t>max.boehnke@vanguard.co.uk</t>
+  </si>
+  <si>
+    <t>Max Boehnke</t>
+  </si>
+  <si>
+    <t>christopher_jordan_chorney@vanguard.com</t>
+  </si>
+  <si>
+    <t>Christopher Jordan Chorney</t>
+  </si>
+  <si>
+    <t>thomas.peek@vanguard.com</t>
+  </si>
+  <si>
+    <t>Thomas Peek</t>
+  </si>
+  <si>
+    <t>kai.hewat@vanguard.com.au</t>
+  </si>
+  <si>
+    <t>Kai Hewat</t>
+  </si>
+  <si>
+    <t>Andy Mo</t>
+  </si>
+  <si>
+    <t>andy.mo@vanguard.com.au</t>
+  </si>
+  <si>
+    <t>dean.tate@vanguard.com.au</t>
+  </si>
+  <si>
+    <t>Dean Tate</t>
+  </si>
+  <si>
+    <t>yasir.khan@vanguard.com.au</t>
+  </si>
+  <si>
+    <t>Yasir Khan</t>
+  </si>
+  <si>
+    <t>reimar.scholz@vanguard.com.au</t>
+  </si>
+  <si>
+    <t>Reimar Scholz</t>
+  </si>
+  <si>
+    <t>alex.qu@vanguard.com.au</t>
+  </si>
+  <si>
+    <t>Alex Qu</t>
+  </si>
+  <si>
+    <t>dimithri.perera@vanguard.com.au</t>
+  </si>
+  <si>
+    <t>Dimithri Perera</t>
   </si>
 </sst>
 </file>
@@ -323,40 +560,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +580,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -685,21 +923,21 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -732,1150 +970,1695 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="15">
         <f t="shared" ref="A10" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <f t="shared" ref="A14" si="1">A10+1</f>
         <v>4</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="B14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="15">
         <f t="shared" ref="A18" si="2">A14+1</f>
         <v>5</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <f t="shared" ref="A22" si="3">A18+1</f>
         <v>6</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="C22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="15">
         <f t="shared" ref="A26" si="4">A22+1</f>
         <v>7</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="B26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <f t="shared" ref="A30" si="5">A26+1</f>
         <v>8</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="B30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="15">
         <f t="shared" ref="A34" si="6">A30+1</f>
         <v>9</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="B34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="A37" s="15"/>
+      <c r="B37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
         <f t="shared" ref="A38" si="7">A34+1</f>
         <v>10</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="G38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="8"/>
+    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="15">
         <f t="shared" ref="A42" si="8">A38+1</f>
         <v>11</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="C42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+      <c r="A45" s="15"/>
+      <c r="B45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
         <f t="shared" ref="A46" si="9">A42+1</f>
         <v>12</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="B46" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="15">
         <f t="shared" ref="A50" si="10">A46+1</f>
         <v>13</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="8"/>
+      <c r="H50" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="A52" s="15"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+      <c r="A53" s="15"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
         <f>A50+1</f>
         <v>14</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="8" t="s">
+      <c r="G54" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+    <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
+      <c r="G55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="G56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="G57" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="15">
         <f t="shared" ref="A58" si="11">A54+1</f>
         <v>15</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="3" t="s">
+      <c r="G58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="A59" s="15"/>
+      <c r="G59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="A60" s="15"/>
+      <c r="G60" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A61" s="15"/>
+      <c r="G61" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
         <f t="shared" ref="A62" si="12">A58+1</f>
         <v>16</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="B62" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
+      <c r="B63" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
+      <c r="B64" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="G65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="15">
         <f t="shared" ref="A66" si="13">A62+1</f>
         <v>17</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="B66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+      <c r="A69" s="15"/>
+      <c r="B69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12">
         <f t="shared" ref="A70" si="14">A66+1</f>
         <v>18</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+    <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="12"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="15">
         <f t="shared" ref="A74" si="15">A70+1</f>
         <v>19</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="G74" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="A75" s="15"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="A76" s="15"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+      <c r="A77" s="15"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12">
         <f t="shared" ref="A78" si="16">A74+1</f>
         <v>20</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" s="8" t="s">
+      <c r="G78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-    </row>
-    <row r="80" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-    </row>
-    <row r="81" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+    <row r="79" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="12"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="15">
         <f t="shared" ref="A82" si="17">A78+1</f>
         <v>21</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="A83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="A84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="A85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
       <c r="I85" s="13"/>
     </row>
-    <row r="86" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12">
         <f t="shared" ref="A86" si="18">A82+1</f>
         <v>22</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
+    <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+    <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
+    <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
       <c r="I89" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="69">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I46:I49"/>
     <mergeCell ref="I78:I81"/>
     <mergeCell ref="I82:I85"/>
     <mergeCell ref="I86:I89"/>
@@ -1886,81 +2669,6 @@
     <mergeCell ref="I66:I69"/>
     <mergeCell ref="I70:I73"/>
     <mergeCell ref="I74:I77"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{F3F145EC-584F-4B42-82AA-61FFEFC05D17}"/>
@@ -1983,7 +2691,6 @@
     <hyperlink ref="I70" r:id="rId18" xr:uid="{0DE383D0-E0C3-654A-9847-E592EA509EA9}"/>
     <hyperlink ref="I74" r:id="rId19" xr:uid="{36A32511-F900-9D4F-A135-3F336C603DAD}"/>
     <hyperlink ref="I78" r:id="rId20" xr:uid="{DE5FFC8A-ED3D-5B44-856A-3B53681DD1D7}"/>
-    <hyperlink ref="D8" r:id="rId21" xr:uid="{62133DEB-7ADA-E946-BE8C-DF55512AC48A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
